--- a/output/fit_clients/fit_round_320.xlsx
+++ b/output/fit_clients/fit_round_320.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2248664840.973951</v>
+        <v>1553251304.637277</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07061331757400859</v>
+        <v>0.1046045347975558</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02996355132126807</v>
+        <v>0.03127419890569881</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1124332449.608487</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2487593259.087301</v>
+        <v>2604851749.910928</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1449526319116856</v>
+        <v>0.1437130750327329</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04602070638450385</v>
+        <v>0.04787637213388461</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1243796745.122894</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3667396213.244199</v>
+        <v>4144749536.295572</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1184442326773347</v>
+        <v>0.1288796251393508</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0330249052126051</v>
+        <v>0.02671458919567629</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>115</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1833698097.239096</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3264079415.518639</v>
+        <v>2916621139.425634</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08619727558604617</v>
+        <v>0.09373402733464765</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03765171284991557</v>
+        <v>0.04236821307035959</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>120</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1632039760.165884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2007267202.601248</v>
+        <v>2772321130.62063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1082722151799377</v>
+        <v>0.1220973833408121</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03511674930355418</v>
+        <v>0.03702989657112862</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>60</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1003633630.113496</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1917711493.299226</v>
+        <v>2934570609.124345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06639973788207892</v>
+        <v>0.06652724786161497</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04406671414429363</v>
+        <v>0.0447219916014886</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>958855815.7827164</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2875584592.980558</v>
+        <v>2931296755.587611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1624974808788502</v>
+        <v>0.1913830451071535</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03038074017908867</v>
+        <v>0.02658238717859516</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>101</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1437792341.289294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2289717651.356065</v>
+        <v>1690639131.524894</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1805590030775141</v>
+        <v>0.1935103818628557</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02750429933999772</v>
+        <v>0.02374635379823385</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1144858812.10184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4101962258.292162</v>
+        <v>5495265394.124187</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1449099481731899</v>
+        <v>0.1676919399155616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05054594952561323</v>
+        <v>0.03425726171805139</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>134</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2050981158.912032</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4071645145.236616</v>
+        <v>3559862774.698256</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1181624878870919</v>
+        <v>0.1781580718976851</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0391968306201811</v>
+        <v>0.04074587379381844</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>132</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2035822590.266276</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3070157799.236361</v>
+        <v>3284442902.268256</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1780555666010006</v>
+        <v>0.1932864544805068</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04717881622280669</v>
+        <v>0.03856151412244547</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>109</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1535078924.074851</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3217729532.580509</v>
+        <v>4804243871.552541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07524433786774849</v>
+        <v>0.07417231249579084</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02347834806898525</v>
+        <v>0.02842273200630898</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>107</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1608864860.954687</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3057171546.537226</v>
+        <v>2803004651.800168</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1545878368252589</v>
+        <v>0.1319713193619054</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04022465915475257</v>
+        <v>0.026901630330844</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1528585803.574379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1497712731.534753</v>
+        <v>1206396886.229477</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1059247538201787</v>
+        <v>0.0757377185774146</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04367292309432714</v>
+        <v>0.0316423213581865</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>748856450.7540432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2514091700.402411</v>
+        <v>2903496196.537772</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07614429122547073</v>
+        <v>0.07798549827105276</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04260003273370096</v>
+        <v>0.050528541263586</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1257045879.7665</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4942462882.368083</v>
+        <v>4966728394.514604</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1160778528583153</v>
+        <v>0.1365688738363885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04145841825287405</v>
+        <v>0.03512029410864376</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>93</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2471231429.222154</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2816075703.676256</v>
+        <v>3690418598.127429</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1400485046792857</v>
+        <v>0.180498379832244</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02141334393000656</v>
+        <v>0.03366268576267969</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>104</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1408037895.380865</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1354724282.739056</v>
+        <v>1337335400.651977</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1746479740070302</v>
+        <v>0.1186710068927238</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02034417410968</v>
+        <v>0.0247079547903301</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>677362256.9340098</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2038532036.137183</v>
+        <v>1720305079.71632</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1478485040865944</v>
+        <v>0.1308025186638243</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03131339234185469</v>
+        <v>0.01929257300957079</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1019266040.315264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2381580601.527042</v>
+        <v>1778426591.47583</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0703315741239975</v>
+        <v>0.07898126565570156</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02940487224726177</v>
+        <v>0.03248203181500172</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1190790300.233803</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3198379765.426844</v>
+        <v>2627611201.892718</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1198465541363098</v>
+        <v>0.1018504243242258</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04003184837441177</v>
+        <v>0.04868703711933059</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1599189932.37179</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1241855980.085526</v>
+        <v>1071824555.241798</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1830748789303132</v>
+        <v>0.1503885211437776</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04551493967200168</v>
+        <v>0.05059043117133279</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>620928019.4690871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3300285448.527169</v>
+        <v>2914477325.142748</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09639837685444648</v>
+        <v>0.09218501354090677</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02637689822961389</v>
+        <v>0.03485575017430951</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>93</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1650142739.318511</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1113698290.700489</v>
+        <v>1187755705.140044</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1030500477092986</v>
+        <v>0.1147730655901678</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02917447773529838</v>
+        <v>0.02021222136525937</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>556849183.1842047</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1399490120.125931</v>
+        <v>914478105.9099149</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09420983990894294</v>
+        <v>0.1069562156369424</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02546976763842323</v>
+        <v>0.03858210327184787</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>699745129.8956184</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4687603654.572984</v>
+        <v>3683274026.744121</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1314098423225869</v>
+        <v>0.1334573768700242</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01730273471179642</v>
+        <v>0.02259903080874067</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2343801803.290052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2351705638.267829</v>
+        <v>2784261266.40772</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1457158509547759</v>
+        <v>0.1052424712539549</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03238298129153293</v>
+        <v>0.03473622439971627</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1175852774.08686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4657221174.949263</v>
+        <v>4706147472.325338</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1375720521180134</v>
+        <v>0.1130927978075656</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04486090833858644</v>
+        <v>0.02992071993472744</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>141</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2328610558.77152</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2211135795.752005</v>
+        <v>2323525832.496324</v>
       </c>
       <c r="F30" t="n">
-        <v>0.109825656814144</v>
+        <v>0.1022195222029189</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03560505400102364</v>
+        <v>0.03700565879352743</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1105567959.35967</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1071929229.061109</v>
+        <v>1384837642.375695</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0750392671892483</v>
+        <v>0.08300187825194044</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03460022688247671</v>
+        <v>0.04700309466010472</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>535964596.1508477</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1739831309.887291</v>
+        <v>1294385937.880654</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1164948849574088</v>
+        <v>0.07625663926649849</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02552781298122188</v>
+        <v>0.02470640696056904</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>869915772.9677192</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2768159323.846125</v>
+        <v>2941681259.270888</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1594561606388048</v>
+        <v>0.1776065821054329</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0413066352001497</v>
+        <v>0.03836466078025393</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1384079677.30094</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1284891939.198763</v>
+        <v>1173861896.874357</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08930330190291433</v>
+        <v>0.1068390700092065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02140612485511893</v>
+        <v>0.02446080540310439</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>642445960.7198516</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>884966639.744031</v>
+        <v>1356834722.070957</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1022349313495758</v>
+        <v>0.1076630558694918</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03355918772859913</v>
+        <v>0.03239611875727556</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>442483363.6789341</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2317859392.575307</v>
+        <v>3081807755.2517</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1262330470873342</v>
+        <v>0.1402611218964799</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02425882134673183</v>
+        <v>0.02437162879040432</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1158929732.87443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2829230582.157861</v>
+        <v>1826796415.672053</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07165170521251787</v>
+        <v>0.07640165861515388</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03070557100677315</v>
+        <v>0.02651990510357573</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>84</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1414615432.422665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1392972344.817585</v>
+        <v>1468129762.240112</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09533257221143908</v>
+        <v>0.08649763614491608</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03974148293822788</v>
+        <v>0.03711255754787665</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>696486236.7885588</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1651878138.376046</v>
+        <v>1887414869.920845</v>
       </c>
       <c r="F39" t="n">
-        <v>0.164543359848791</v>
+        <v>0.1921493927869805</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02518473621668318</v>
+        <v>0.02854069930737305</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>825939116.5614469</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1514299100.529799</v>
+        <v>1417322200.026911</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1496550992062838</v>
+        <v>0.1351703260602282</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04237842495019156</v>
+        <v>0.04613722745158238</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>757149512.8842856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2129980724.424356</v>
+        <v>2114498130.660125</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1580454791741183</v>
+        <v>0.1416349297103859</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04301905429832523</v>
+        <v>0.03453595080934628</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1064990423.695298</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2695205630.024656</v>
+        <v>4193395012.215195</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08438734096922207</v>
+        <v>0.1145548131394666</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04213145556749114</v>
+        <v>0.03592285940386353</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1347602754.478558</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2131375818.187224</v>
+        <v>2721081958.392058</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1938215879475479</v>
+        <v>0.1717647020263733</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01880427535127318</v>
+        <v>0.02009405683466925</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>115</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1065687994.839549</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2004960217.824246</v>
+        <v>1727293730.929279</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06290309231393476</v>
+        <v>0.09981148471004142</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03265311832963413</v>
+        <v>0.03689872978027537</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1002480216.242909</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1654230642.584275</v>
+        <v>1795432122.033452</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1461931683975247</v>
+        <v>0.1255427850187601</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0454856980182614</v>
+        <v>0.04732050470038723</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>827115277.2903775</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5652981357.684789</v>
+        <v>5423405673.032263</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1550110644023958</v>
+        <v>0.1155406267651503</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05047782275733814</v>
+        <v>0.0393324314026227</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>113</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2826490743.055874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4977069423.869989</v>
+        <v>4290319524.766448</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1679054445487231</v>
+        <v>0.1390930315344398</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04564810454537541</v>
+        <v>0.04498352692169092</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>85</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2488534766.417295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3633678877.929042</v>
+        <v>4661710341.955061</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07415161403156206</v>
+        <v>0.1020651548634819</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03872220782351751</v>
+        <v>0.03748883582136051</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1816839494.617832</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1333549626.761739</v>
+        <v>1453026064.928331</v>
       </c>
       <c r="F49" t="n">
-        <v>0.118825147459259</v>
+        <v>0.1191820836565813</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03198746048739539</v>
+        <v>0.0280610879555025</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>666774871.2940663</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3021122528.319858</v>
+        <v>3638932701.539614</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1372585541214429</v>
+        <v>0.1450679813094779</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03394564764974102</v>
+        <v>0.04659352113539401</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>108</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1510561322.512248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1430373114.12158</v>
+        <v>1092774491.775154</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1578881510419151</v>
+        <v>0.1579530759215609</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0502426114090243</v>
+        <v>0.04422373469295594</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>715186571.2815772</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4763126939.827344</v>
+        <v>3543204624.939242</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08593989803014243</v>
+        <v>0.1367190553067226</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04016056576998633</v>
+        <v>0.05885955709944136</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>131</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2381563481.486312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3779095546.034879</v>
+        <v>2898835840.347266</v>
       </c>
       <c r="F53" t="n">
-        <v>0.175604562342125</v>
+        <v>0.1324844666596226</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03366949588723573</v>
+        <v>0.03303521605673279</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1889547751.62882</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4271928039.999285</v>
+        <v>3778291033.84194</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1393107755403463</v>
+        <v>0.1635725727681387</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04595469900932506</v>
+        <v>0.04638607011699818</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2135964105.429154</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4181432378.601745</v>
+        <v>3923481759.758647</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1695948245327031</v>
+        <v>0.1780770638634879</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02326438932740103</v>
+        <v>0.02146783069146645</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2090716172.202045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1404470108.189472</v>
+        <v>1722526400.802785</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1149790600448792</v>
+        <v>0.1351153781233035</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05239948209078434</v>
+        <v>0.04481330531466506</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>702235110.5095457</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2969753863.753154</v>
+        <v>4519294585.894589</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1756754654446779</v>
+        <v>0.1461094572424144</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02448552856251697</v>
+        <v>0.02076095601118089</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>101</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1484876933.743869</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1389902372.513256</v>
+        <v>1222484608.67705</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1393320503312116</v>
+        <v>0.1838690696484836</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02613668759325397</v>
+        <v>0.02835862315803553</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>694951227.4340074</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3273017642.136897</v>
+        <v>4437171956.781055</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1168155841209036</v>
+        <v>0.09445300856973093</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04461498575693388</v>
+        <v>0.04980399868412601</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>88</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1636508832.096344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3250537508.118063</v>
+        <v>3724138979.685344</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1854469243246799</v>
+        <v>0.2017659877420535</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02397787533085479</v>
+        <v>0.02558349344330073</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1625268850.69373</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2962372538.784535</v>
+        <v>2337251628.093887</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1218416461207605</v>
+        <v>0.109742045967981</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02514006213260131</v>
+        <v>0.03069299183171437</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>109</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1481186253.416454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2049916978.094241</v>
+        <v>1518992414.508839</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1475758167565305</v>
+        <v>0.1389701134350714</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03646998543664566</v>
+        <v>0.04278050458773521</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1024958554.579689</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5517244163.487931</v>
+        <v>4766089482.779255</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08298888475001424</v>
+        <v>0.1026277636315816</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03209952579439373</v>
+        <v>0.03108387844994051</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2758622076.453334</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4072585239.844728</v>
+        <v>5261052144.96251</v>
       </c>
       <c r="F64" t="n">
-        <v>0.137350074273369</v>
+        <v>0.168902938956408</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02404248707142238</v>
+        <v>0.03242718451629108</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>99</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2036292660.897784</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4705416291.332652</v>
+        <v>4546465960.610382</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1420435801343456</v>
+        <v>0.1370649019837418</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02567428914552298</v>
+        <v>0.01979910707640697</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>114</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2352708122.16397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4140279706.881489</v>
+        <v>3965165599.860095</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1001761856601022</v>
+        <v>0.1197476027644353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03195154438765734</v>
+        <v>0.04281965054993106</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>93</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2070139834.516863</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3455734481.939423</v>
+        <v>2599053195.700312</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06909831356474679</v>
+        <v>0.08619254940531548</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03196231243446857</v>
+        <v>0.04063940864168925</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>102</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1727867220.620075</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4130663734.270949</v>
+        <v>3881699022.872895</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1119784490071951</v>
+        <v>0.1111275463203447</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04198881351336933</v>
+        <v>0.03864402846815439</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2065331870.84437</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1770815063.217002</v>
+        <v>2067488504.208146</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1497243359775876</v>
+        <v>0.1759931734524906</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04560290596476982</v>
+        <v>0.04054819724995083</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>885407506.9218596</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3733819617.711666</v>
+        <v>2841157577.192516</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06932701412059261</v>
+        <v>0.102455247228352</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03922862629019157</v>
+        <v>0.03258443359657162</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>91</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1866909833.679148</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4746058645.212574</v>
+        <v>4149928948.070382</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1355528226594115</v>
+        <v>0.1405956095383414</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02744271010225482</v>
+        <v>0.02749999772896272</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>116</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2373029409.359981</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1796033694.236048</v>
+        <v>1466156106.998748</v>
       </c>
       <c r="F72" t="n">
-        <v>0.106895711548409</v>
+        <v>0.1067623509133209</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04007511283535057</v>
+        <v>0.0484386348801437</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>898016826.3727947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3314866332.652746</v>
+        <v>3475312546.407371</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09822579798118032</v>
+        <v>0.0953900559206874</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04807210250711547</v>
+        <v>0.03948742515310646</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>121</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1657433133.482374</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3364585358.433127</v>
+        <v>3026101277.202437</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1707229900448463</v>
+        <v>0.1825480548242637</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03458081232122164</v>
+        <v>0.02699810690448209</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>109</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1682292713.121845</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1647204080.780674</v>
+        <v>1516161017.769226</v>
       </c>
       <c r="F75" t="n">
-        <v>0.156200036980209</v>
+        <v>0.1333233878814933</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02511169380758689</v>
+        <v>0.02584694869464689</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>823602037.6541419</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4121931422.920834</v>
+        <v>5314919374.866858</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09039426486065015</v>
+        <v>0.1084458011618169</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0327678574105823</v>
+        <v>0.02755700730047616</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2060965701.295704</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1995643863.319669</v>
+        <v>2165960984.09408</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1726040049810737</v>
+        <v>0.1583655092975124</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01943557819721111</v>
+        <v>0.02360639632516</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>997821992.5083992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2899878250.622368</v>
+        <v>4786845945.765196</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09109085912206263</v>
+        <v>0.1322526141656737</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03937468498491629</v>
+        <v>0.0389713427698041</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>111</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1449939169.781385</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1708639924.908377</v>
+        <v>1296000232.111337</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1448866857391381</v>
+        <v>0.1130649827744527</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03798250077164222</v>
+        <v>0.04065722119668188</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>854320033.1716868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5345902713.048723</v>
+        <v>5147283149.122563</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10356760902819</v>
+        <v>0.07701564016573076</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03779547957787158</v>
+        <v>0.02636148608255212</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2672951422.931053</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4216711086.381286</v>
+        <v>4115698134.938277</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1365932845713166</v>
+        <v>0.09852777955682689</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02841074794946126</v>
+        <v>0.02484372427041459</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2108355514.459821</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4588345263.912045</v>
+        <v>4050843654.621071</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2034701345605931</v>
+        <v>0.2039253924560733</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02043906030682303</v>
+        <v>0.02656741710798518</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2294172638.881709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2010915688.322756</v>
+        <v>1771694537.607406</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1550824972512627</v>
+        <v>0.1581559516431208</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0296613958978025</v>
+        <v>0.04171087756137164</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1005457830.802877</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2337140398.640325</v>
+        <v>1917573325.476667</v>
       </c>
       <c r="F84" t="n">
-        <v>0.118760168062242</v>
+        <v>0.1063063067184889</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04237596925559965</v>
+        <v>0.0399493546406452</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1168570154.9448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2832590187.952518</v>
+        <v>2983510675.347057</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1716147849063867</v>
+        <v>0.1289677389929918</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05305662320397196</v>
+        <v>0.0485798231951319</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>120</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1416295135.650114</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2187458315.410972</v>
+        <v>2547778410.651414</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1167760070115443</v>
+        <v>0.1717581338085056</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02351084827691397</v>
+        <v>0.02423764553125709</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1093729211.388387</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1329502672.514807</v>
+        <v>979398193.2985568</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1902334112082407</v>
+        <v>0.1265425443925281</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03412619906847952</v>
+        <v>0.02954169513905638</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>664751425.0295742</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2460094272.587931</v>
+        <v>3402055081.597869</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1616272253879147</v>
+        <v>0.1105649175006393</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02425555225483776</v>
+        <v>0.02767370284757683</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>127</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1230047113.38724</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3323931166.393165</v>
+        <v>3448242259.868784</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1110328979916934</v>
+        <v>0.1384712141213239</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03079146839693346</v>
+        <v>0.03082651792702437</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>107</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1661965597.566412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2121619428.612409</v>
+        <v>2080367271.9671</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1145253125701433</v>
+        <v>0.1042770207244496</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05484922130633083</v>
+        <v>0.04873653639455199</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1060809806.798731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1967796897.441009</v>
+        <v>1888463413.057128</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1426691959712673</v>
+        <v>0.1275087291505485</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03952486318991435</v>
+        <v>0.05198609259233781</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>983898425.3054049</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2898402534.629808</v>
+        <v>1871114355.202055</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0890593616210071</v>
+        <v>0.1013581946358111</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04467293154026562</v>
+        <v>0.03686531944246224</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>85</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1449201281.375589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4240324789.192323</v>
+        <v>3164324789.861162</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1347743808752248</v>
+        <v>0.08841014166000248</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05336448564563318</v>
+        <v>0.03829229357213338</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>100</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2120162379.688741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1968899846.099912</v>
+        <v>2391132073.944529</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1077079035552341</v>
+        <v>0.1174196138979676</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0262403891114962</v>
+        <v>0.03615730662750757</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>984449917.3289346</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2709037246.169834</v>
+        <v>2924668379.652353</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1231480418307209</v>
+        <v>0.1049710282657015</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04635874878889649</v>
+        <v>0.03777951487984145</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1354518643.983959</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1820488333.048929</v>
+        <v>2352470085.752121</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1135983508834645</v>
+        <v>0.1226749673934002</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04528904334281716</v>
+        <v>0.04297727951888116</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>910244172.6626596</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4682026992.540465</v>
+        <v>3280730688.731958</v>
       </c>
       <c r="F97" t="n">
-        <v>0.17135842871667</v>
+        <v>0.1561106326206687</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01964227875038149</v>
+        <v>0.02306946513567092</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>103</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2341013607.496919</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3114236302.287181</v>
+        <v>2515500617.758095</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1175842355607509</v>
+        <v>0.1182015957795627</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02407183933706808</v>
+        <v>0.03271744413365797</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>88</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1557118143.573234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3018692168.051065</v>
+        <v>3305043319.284707</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1001280839021973</v>
+        <v>0.1271606105076063</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02302889885771528</v>
+        <v>0.03207725916869136</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1509346071.320271</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4042166665.233666</v>
+        <v>3057246467.028829</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1376551655031956</v>
+        <v>0.1266078534561093</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02662539398215597</v>
+        <v>0.01913397753855289</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2021083406.672964</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2283394022.81656</v>
+        <v>3229686160.503152</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1872510251768057</v>
+        <v>0.157657647112333</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0576804947191884</v>
+        <v>0.04471951302276529</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>128</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1141697005.772934</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_320.xlsx
+++ b/output/fit_clients/fit_round_320.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1553251304.637277</v>
+        <v>1878217986.380383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1046045347975558</v>
+        <v>0.08242614108059022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03127419890569881</v>
+        <v>0.0308673661272439</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2604851749.910928</v>
+        <v>2279948305.327258</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1437130750327329</v>
+        <v>0.1208470574797679</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04787637213388461</v>
+        <v>0.04122470998871462</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4144749536.295572</v>
+        <v>4356178582.623168</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1288796251393508</v>
+        <v>0.1446170748414383</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02671458919567629</v>
+        <v>0.02603475674258891</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2916621139.425634</v>
+        <v>3563855578.862635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09373402733464765</v>
+        <v>0.06910592696113715</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04236821307035959</v>
+        <v>0.04462829581062821</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2772321130.62063</v>
+        <v>2869543173.647188</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1220973833408121</v>
+        <v>0.1417953084589276</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03702989657112862</v>
+        <v>0.05566180944363797</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2934570609.124345</v>
+        <v>2242194892.197404</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06652724786161497</v>
+        <v>0.09046796283993161</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0447219916014886</v>
+        <v>0.03770568342498626</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2931296755.587611</v>
+        <v>3202104349.457832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1913830451071535</v>
+        <v>0.1549293354747282</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02658238717859516</v>
+        <v>0.03146246713002278</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1690639131.524894</v>
+        <v>1667695944.13865</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1935103818628557</v>
+        <v>0.1262477096202239</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02374635379823385</v>
+        <v>0.03433630189362142</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5495265394.124187</v>
+        <v>5720325802.050524</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1676919399155616</v>
+        <v>0.1317217537616221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03425726171805139</v>
+        <v>0.04134202128527252</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3559862774.698256</v>
+        <v>3568989638.502909</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1781580718976851</v>
+        <v>0.1171494690852473</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04074587379381844</v>
+        <v>0.03497936809754682</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3284442902.268256</v>
+        <v>2883279103.121135</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1932864544805068</v>
+        <v>0.1816789055596595</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03856151412244547</v>
+        <v>0.05362139411363105</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4804243871.552541</v>
+        <v>3453835835.18968</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07417231249579084</v>
+        <v>0.06854595004073652</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02842273200630898</v>
+        <v>0.03044160442536774</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2803004651.800168</v>
+        <v>3464058755.054641</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1319713193619054</v>
+        <v>0.1350139807222834</v>
       </c>
       <c r="G14" t="n">
-        <v>0.026901630330844</v>
+        <v>0.04317819857238532</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1206396886.229477</v>
+        <v>1606650110.193393</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0757377185774146</v>
+        <v>0.09078126372285544</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0316423213581865</v>
+        <v>0.04333271177227441</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2903496196.537772</v>
+        <v>2549861350.220443</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07798549827105276</v>
+        <v>0.1156329405147273</v>
       </c>
       <c r="G16" t="n">
-        <v>0.050528541263586</v>
+        <v>0.03994773468462259</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4966728394.514604</v>
+        <v>4751269685.693204</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1365688738363885</v>
+        <v>0.1585004301152778</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03512029410864376</v>
+        <v>0.0477935324013013</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3690418598.127429</v>
+        <v>3950338831.8961</v>
       </c>
       <c r="F18" t="n">
-        <v>0.180498379832244</v>
+        <v>0.1511937535832975</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03366268576267969</v>
+        <v>0.02110574253738456</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1337335400.651977</v>
+        <v>1140002377.711413</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1186710068927238</v>
+        <v>0.1532219399250583</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0247079547903301</v>
+        <v>0.0228809569155684</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1720305079.71632</v>
+        <v>1964137687.465806</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1308025186638243</v>
+        <v>0.134866319694124</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01929257300957079</v>
+        <v>0.0259820663098285</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1778426591.47583</v>
+        <v>2361735985.832595</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07898126565570156</v>
+        <v>0.08077298671746942</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03248203181500172</v>
+        <v>0.03098471087232525</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2627611201.892718</v>
+        <v>3704107529.519111</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1018504243242258</v>
+        <v>0.09906014527432751</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04868703711933059</v>
+        <v>0.03711981472827852</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1071824555.241798</v>
+        <v>938330606.1999627</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1503885211437776</v>
+        <v>0.1188484747329997</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05059043117133279</v>
+        <v>0.04155229582402273</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2914477325.142748</v>
+        <v>2825642104.135734</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09218501354090677</v>
+        <v>0.1026256825059144</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03485575017430951</v>
+        <v>0.0329335230342445</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1187755705.140044</v>
+        <v>905954481.5474049</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1147730655901678</v>
+        <v>0.08253530067464686</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02021222136525937</v>
+        <v>0.02790722159379746</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>914478105.9099149</v>
+        <v>1297499855.643901</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1069562156369424</v>
+        <v>0.0750183583633267</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03858210327184787</v>
+        <v>0.0384981158070277</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3683274026.744121</v>
+        <v>3464137573.319168</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1334573768700242</v>
+        <v>0.108596220708254</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02259903080874067</v>
+        <v>0.01737251201882746</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2784261266.40772</v>
+        <v>3114475963.387177</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1052424712539549</v>
+        <v>0.09823392518197643</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03473622439971627</v>
+        <v>0.03370291516273558</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4706147472.325338</v>
+        <v>4622116548.785336</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1130927978075656</v>
+        <v>0.1178991311095589</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02992071993472744</v>
+        <v>0.03125291275742913</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2323525832.496324</v>
+        <v>1625376621.422649</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1022195222029189</v>
+        <v>0.1345495016907583</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03700565879352743</v>
+        <v>0.03584300265965223</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1384837642.375695</v>
+        <v>1354704923.656668</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08300187825194044</v>
+        <v>0.1119346527671359</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04700309466010472</v>
+        <v>0.04340838688242513</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1294385937.880654</v>
+        <v>1698063254.777248</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07625663926649849</v>
+        <v>0.1093460155602089</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02470640696056904</v>
+        <v>0.03834003885578603</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2941681259.270888</v>
+        <v>2370466558.227414</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1776065821054329</v>
+        <v>0.1657903967036848</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03836466078025393</v>
+        <v>0.05279194833400427</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1173861896.874357</v>
+        <v>1521069350.64481</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1068390700092065</v>
+        <v>0.08327182328366052</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02446080540310439</v>
+        <v>0.02042926017879875</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1356834722.070957</v>
+        <v>1118682432.286092</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1076630558694918</v>
+        <v>0.1182585410611712</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03239611875727556</v>
+        <v>0.0382613266424407</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3081807755.2517</v>
+        <v>2601395453.28386</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1402611218964799</v>
+        <v>0.1793944052843592</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02437162879040432</v>
+        <v>0.02575263727416271</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1826796415.672053</v>
+        <v>2765860755.569841</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07640165861515388</v>
+        <v>0.06941498828148171</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02651990510357573</v>
+        <v>0.02967916380154345</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1468129762.240112</v>
+        <v>2127979981.145698</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08649763614491608</v>
+        <v>0.07901573494633836</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03711255754787665</v>
+        <v>0.03595646157777174</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1887414869.920845</v>
+        <v>2141905274.919227</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1921493927869805</v>
+        <v>0.1899522273682838</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02854069930737305</v>
+        <v>0.02713161372152891</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1417322200.026911</v>
+        <v>1166047277.534045</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1351703260602282</v>
+        <v>0.1282148916240266</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04613722745158238</v>
+        <v>0.05379022797191288</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2114498130.660125</v>
+        <v>2770193753.529491</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1416349297103859</v>
+        <v>0.147300103639815</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03453595080934628</v>
+        <v>0.03285731578598526</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4193395012.215195</v>
+        <v>3209355679.343606</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1145548131394666</v>
+        <v>0.08216381171550939</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03592285940386353</v>
+        <v>0.03688297920260566</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2721081958.392058</v>
+        <v>2383505699.834092</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1717647020263733</v>
+        <v>0.1522995634391611</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02009405683466925</v>
+        <v>0.02097900739713199</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1727293730.929279</v>
+        <v>1791749907.702219</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09981148471004142</v>
+        <v>0.1008928819059201</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03689872978027537</v>
+        <v>0.03594079121245695</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1795432122.033452</v>
+        <v>1572466697.576262</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1255427850187601</v>
+        <v>0.1948216794291821</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04732050470038723</v>
+        <v>0.03686239714749094</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5423405673.032263</v>
+        <v>4949607780.670245</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1155406267651503</v>
+        <v>0.1164182847469747</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0393324314026227</v>
+        <v>0.05489891086116332</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4290319524.766448</v>
+        <v>3829255129.208118</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1390930315344398</v>
+        <v>0.1505512627876906</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04498352692169092</v>
+        <v>0.04696739012449935</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4661710341.955061</v>
+        <v>3030679628.554245</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020651548634819</v>
+        <v>0.08661755389623814</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03748883582136051</v>
+        <v>0.03890495732325648</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1453026064.928331</v>
+        <v>1279132390.996186</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1191820836565813</v>
+        <v>0.1891197565754605</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0280610879555025</v>
+        <v>0.04284328570671572</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3638932701.539614</v>
+        <v>3059127717.302338</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1450679813094779</v>
+        <v>0.1653690512808402</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04659352113539401</v>
+        <v>0.04009392501536305</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1092774491.775154</v>
+        <v>1534547849.528669</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1579530759215609</v>
+        <v>0.1780427575068468</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04422373469295594</v>
+        <v>0.03989819602860079</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3543204624.939242</v>
+        <v>4119347808.742103</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1367190553067226</v>
+        <v>0.1150615260212505</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05885955709944136</v>
+        <v>0.05483893154907682</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2898835840.347266</v>
+        <v>3582499437.306322</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1324844666596226</v>
+        <v>0.1654553980127605</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03303521605673279</v>
+        <v>0.02377846325130508</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3778291033.84194</v>
+        <v>3973466771.078362</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1635725727681387</v>
+        <v>0.1266534062223265</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04638607011699818</v>
+        <v>0.0524008634292883</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3923481759.758647</v>
+        <v>3033525985.962731</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1780770638634879</v>
+        <v>0.1564107798916168</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02146783069146645</v>
+        <v>0.0200509096781666</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1722526400.802785</v>
+        <v>1849677057.985297</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1351153781233035</v>
+        <v>0.1015860172185875</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04481330531466506</v>
+        <v>0.05373372268786126</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4519294585.894589</v>
+        <v>4586550506.788261</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1461094572424144</v>
+        <v>0.1228217277308316</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02076095601118089</v>
+        <v>0.02760127983022931</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1222484608.67705</v>
+        <v>1225051531.39481</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1838690696484836</v>
+        <v>0.1885613871666266</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02835862315803553</v>
+        <v>0.02697248703845084</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4437171956.781055</v>
+        <v>5355206747.674522</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09445300856973093</v>
+        <v>0.0918365375071819</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04980399868412601</v>
+        <v>0.03426058094053933</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3724138979.685344</v>
+        <v>3567133652.665374</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2017659877420535</v>
+        <v>0.1702598485521617</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02558349344330073</v>
+        <v>0.02546711290210234</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2337251628.093887</v>
+        <v>3130206001.994328</v>
       </c>
       <c r="F61" t="n">
-        <v>0.109742045967981</v>
+        <v>0.1442543307941545</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03069299183171437</v>
+        <v>0.02415365021019057</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1518992414.508839</v>
+        <v>2096977446.05655</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1389701134350714</v>
+        <v>0.1243643619050887</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04278050458773521</v>
+        <v>0.04915150172076512</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4766089482.779255</v>
+        <v>3791104842.102123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1026277636315816</v>
+        <v>0.06486624440014477</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03108387844994051</v>
+        <v>0.04681632478552677</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5261052144.96251</v>
+        <v>4127854165.578935</v>
       </c>
       <c r="F64" t="n">
-        <v>0.168902938956408</v>
+        <v>0.1442041977074075</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03242718451629108</v>
+        <v>0.02895498306627405</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4546465960.610382</v>
+        <v>5824223812.562487</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1370649019837418</v>
+        <v>0.1127424914268435</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01979910707640697</v>
+        <v>0.02014592263903669</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3965165599.860095</v>
+        <v>4441046538.643652</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1197476027644353</v>
+        <v>0.1133568623129055</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04281965054993106</v>
+        <v>0.0456272764855772</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2599053195.700312</v>
+        <v>2276840715.590819</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08619254940531548</v>
+        <v>0.0658204756109791</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04063940864168925</v>
+        <v>0.04812825325076912</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3881699022.872895</v>
+        <v>4262952452.692172</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1111275463203447</v>
+        <v>0.110181222848149</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03864402846815439</v>
+        <v>0.04146028476008747</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2067488504.208146</v>
+        <v>2356177360.764078</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1759931734524906</v>
+        <v>0.1479804411068151</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04054819724995083</v>
+        <v>0.03696636068862096</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2841157577.192516</v>
+        <v>2770900262.981114</v>
       </c>
       <c r="F70" t="n">
-        <v>0.102455247228352</v>
+        <v>0.0993114699124983</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03258443359657162</v>
+        <v>0.03980861414431626</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4149928948.070382</v>
+        <v>3612441214.019329</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1405956095383414</v>
+        <v>0.1179320575423971</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02749999772896272</v>
+        <v>0.02134247698276564</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1466156106.998748</v>
+        <v>2046456246.573285</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1067623509133209</v>
+        <v>0.09549909408091768</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0484386348801437</v>
+        <v>0.05105553904733748</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3475312546.407371</v>
+        <v>3140778935.997509</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0953900559206874</v>
+        <v>0.1095310445023428</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03948742515310646</v>
+        <v>0.04179137476796863</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3026101277.202437</v>
+        <v>3995317351.311858</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1825480548242637</v>
+        <v>0.1128497435999576</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02699810690448209</v>
+        <v>0.0238986265574032</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1516161017.769226</v>
+        <v>1907560719.318964</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1333233878814933</v>
+        <v>0.1367858938695307</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02584694869464689</v>
+        <v>0.03349390451610004</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5314919374.866858</v>
+        <v>3308780882.15778</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1084458011618169</v>
+        <v>0.1114054976022794</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02755700730047616</v>
+        <v>0.02123770715476611</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2165960984.09408</v>
+        <v>2154681922.497138</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1583655092975124</v>
+        <v>0.1733083660451703</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02360639632516</v>
+        <v>0.02614644571173244</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4786845945.765196</v>
+        <v>4593114008.391032</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1322526141656737</v>
+        <v>0.1259578528846378</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0389713427698041</v>
+        <v>0.04278014585221023</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1296000232.111337</v>
+        <v>1779640715.604532</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1130649827744527</v>
+        <v>0.1553406022993323</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04065722119668188</v>
+        <v>0.0279987333435346</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5147283149.122563</v>
+        <v>5324349047.54516</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07701564016573076</v>
+        <v>0.1056008099338729</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02636148608255212</v>
+        <v>0.02703720647013139</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4115698134.938277</v>
+        <v>4245287690.331595</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09852777955682689</v>
+        <v>0.09830342238411072</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02484372427041459</v>
+        <v>0.03089437979206106</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4050843654.621071</v>
+        <v>4893747268.096408</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2039253924560733</v>
+        <v>0.1894614779053564</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02656741710798518</v>
+        <v>0.02675097810741536</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1771694537.607406</v>
+        <v>2190387056.835814</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1581559516431208</v>
+        <v>0.1409284871433265</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04171087756137164</v>
+        <v>0.04353469578272578</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1917573325.476667</v>
+        <v>2382543779.236513</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1063063067184889</v>
+        <v>0.09877238347520062</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0399493546406452</v>
+        <v>0.03394717320327718</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2983510675.347057</v>
+        <v>3420027313.596662</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1289677389929918</v>
+        <v>0.1253463219857608</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0485798231951319</v>
+        <v>0.04569256158517208</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2547778410.651414</v>
+        <v>2322572305.002599</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1717581338085056</v>
+        <v>0.1218030815850299</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02423764553125709</v>
+        <v>0.02706504043110576</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>979398193.2985568</v>
+        <v>1454239019.523429</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1265425443925281</v>
+        <v>0.1187580437130825</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02954169513905638</v>
+        <v>0.03602719885278884</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3402055081.597869</v>
+        <v>3000409020.462208</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1105649175006393</v>
+        <v>0.143173375732561</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02767370284757683</v>
+        <v>0.03137496765587203</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3448242259.868784</v>
+        <v>3205691815.564814</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1384712141213239</v>
+        <v>0.125024582174259</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03082651792702437</v>
+        <v>0.0382630309981472</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2080367271.9671</v>
+        <v>1477572529.196572</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1042770207244496</v>
+        <v>0.1123717132971325</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04873653639455199</v>
+        <v>0.05391627589088945</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1888463413.057128</v>
+        <v>1706059432.648845</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1275087291505485</v>
+        <v>0.1528903134585077</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05198609259233781</v>
+        <v>0.04313419395592066</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1871114355.202055</v>
+        <v>2359023266.122929</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1013581946358111</v>
+        <v>0.1058267080272426</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03686531944246224</v>
+        <v>0.04634316875244707</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3164324789.861162</v>
+        <v>4579265447.210552</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08841014166000248</v>
+        <v>0.1333043933242795</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03829229357213338</v>
+        <v>0.03767989822478957</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2391132073.944529</v>
+        <v>2388622233.45681</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1174196138979676</v>
+        <v>0.1474396062384618</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03615730662750757</v>
+        <v>0.03758731592111177</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2924668379.652353</v>
+        <v>2707908027.763461</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1049710282657015</v>
+        <v>0.09295425400523261</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03777951487984145</v>
+        <v>0.04775850643988933</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2352470085.752121</v>
+        <v>1618206449.469618</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1226749673934002</v>
+        <v>0.0960216568331996</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04297727951888116</v>
+        <v>0.03930098806445773</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3280730688.731958</v>
+        <v>4947357753.300938</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1561106326206687</v>
+        <v>0.140989266666091</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02306946513567092</v>
+        <v>0.02203187612857759</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2515500617.758095</v>
+        <v>3193615197.02071</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1182015957795627</v>
+        <v>0.1060664556513511</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03271744413365797</v>
+        <v>0.02174189841424385</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3305043319.284707</v>
+        <v>2601937213.667881</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1271606105076063</v>
+        <v>0.1174586967518287</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03207725916869136</v>
+        <v>0.02926239790191372</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3057246467.028829</v>
+        <v>3665642449.797868</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1266078534561093</v>
+        <v>0.1135633118884026</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01913397753855289</v>
+        <v>0.02009893756234171</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3229686160.503152</v>
+        <v>2501344083.488889</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157657647112333</v>
+        <v>0.1762474125992552</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04471951302276529</v>
+        <v>0.04530789139948818</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_320.xlsx
+++ b/output/fit_clients/fit_round_320.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1878217986.380383</v>
+        <v>1698399250.060148</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08242614108059022</v>
+        <v>0.08778254483083124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0308673661272439</v>
+        <v>0.03958824285027893</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2279948305.327258</v>
+        <v>1676151342.176586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1208470574797679</v>
+        <v>0.1728520011941324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04122470998871462</v>
+        <v>0.03262291387280563</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4356178582.623168</v>
+        <v>3327670603.822968</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1446170748414383</v>
+        <v>0.1393023797753488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02603475674258891</v>
+        <v>0.03128601333837854</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>167</v>
+      </c>
+      <c r="J4" t="n">
+        <v>318</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3563855578.862635</v>
+        <v>3790920827.879568</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06910592696113715</v>
+        <v>0.1023258254684446</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04462829581062821</v>
+        <v>0.04409712819446311</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>127</v>
+      </c>
+      <c r="J5" t="n">
+        <v>320</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2869543173.647188</v>
+        <v>2359666433.749914</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1417953084589276</v>
+        <v>0.1182770689414671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05566180944363797</v>
+        <v>0.04390701811591734</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2242194892.197404</v>
+        <v>2098491204.410802</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09046796283993161</v>
+        <v>0.08971334672405359</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03770568342498626</v>
+        <v>0.0437303791013401</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3202104349.457832</v>
+        <v>3845159029.307236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1549293354747282</v>
+        <v>0.1645456047705762</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03146246713002278</v>
+        <v>0.0242219770041465</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>320</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1667695944.13865</v>
+        <v>1490027389.411757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1262477096202239</v>
+        <v>0.1923127169866727</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03433630189362142</v>
+        <v>0.03204058406075908</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5720325802.050524</v>
+        <v>5883589040.198973</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1317217537616221</v>
+        <v>0.211995144381514</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04134202128527252</v>
+        <v>0.04219048999201924</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>279</v>
+      </c>
+      <c r="J10" t="n">
+        <v>319</v>
+      </c>
+      <c r="K10" t="n">
+        <v>75.49077950767673</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3568989638.502909</v>
+        <v>3550892231.971165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1171494690852473</v>
+        <v>0.1651861082966755</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03497936809754682</v>
+        <v>0.03427885452139064</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>130</v>
+      </c>
+      <c r="J11" t="n">
+        <v>320</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2883279103.121135</v>
+        <v>2049426327.507676</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1816789055596595</v>
+        <v>0.1290088187567749</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05362139411363105</v>
+        <v>0.04304886780487541</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3453835835.18968</v>
+        <v>4495892055.032376</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06854595004073652</v>
+        <v>0.0678977594152366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03044160442536774</v>
+        <v>0.02488595313474265</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>165</v>
+      </c>
+      <c r="J13" t="n">
+        <v>320</v>
+      </c>
+      <c r="K13" t="n">
+        <v>76.9187586346325</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3464058755.054641</v>
+        <v>2702270356.779227</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1350139807222834</v>
+        <v>0.1757816089961807</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04317819857238532</v>
+        <v>0.02983710577529886</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1606650110.193393</v>
+        <v>1673555873.097158</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09078126372285544</v>
+        <v>0.06658153966368197</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04333271177227441</v>
+        <v>0.03611758445678577</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2549861350.220443</v>
+        <v>2638640158.97945</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1156329405147273</v>
+        <v>0.09310409565564719</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03994773468462259</v>
+        <v>0.05165967370165616</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4751269685.693204</v>
+        <v>4302092480.846498</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1585004301152778</v>
+        <v>0.1389614112530991</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0477935324013013</v>
+        <v>0.05087930571800228</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>320</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3950338831.8961</v>
+        <v>3374396372.791883</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1511937535832975</v>
+        <v>0.1825912834533704</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02110574253738456</v>
+        <v>0.03208502566349637</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>79</v>
+      </c>
+      <c r="J18" t="n">
+        <v>319</v>
+      </c>
+      <c r="K18" t="n">
+        <v>73.45945341907394</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1140002377.711413</v>
+        <v>1371297100.671438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1532219399250583</v>
+        <v>0.1885138086696931</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0228809569155684</v>
+        <v>0.01790674998780611</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1964137687.465806</v>
+        <v>1812680881.586693</v>
       </c>
       <c r="F20" t="n">
-        <v>0.134866319694124</v>
+        <v>0.1153058907045</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0259820663098285</v>
+        <v>0.03186944211400072</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2361735985.832595</v>
+        <v>2149902417.601867</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08077298671746942</v>
+        <v>0.0800474702070432</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03098471087232525</v>
+        <v>0.04087682218322835</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3704107529.519111</v>
+        <v>3113375311.819541</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09906014527432751</v>
+        <v>0.1211839875597404</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03711981472827852</v>
+        <v>0.05456134093104</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>87</v>
+      </c>
+      <c r="J22" t="n">
+        <v>319</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56.28321864217244</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>938330606.1999627</v>
+        <v>1236932106.496667</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1188484747329997</v>
+        <v>0.1509492854656588</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04155229582402273</v>
+        <v>0.04881814614521861</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2825642104.135734</v>
+        <v>3172003744.413456</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1026256825059144</v>
+        <v>0.138789581896172</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0329335230342445</v>
+        <v>0.03566572361300479</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>95</v>
+      </c>
+      <c r="J24" t="n">
+        <v>316</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>905954481.5474049</v>
+        <v>1149584269.175173</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08253530067464686</v>
+        <v>0.08460870954383047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02790722159379746</v>
+        <v>0.02790412880702738</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1297499855.643901</v>
+        <v>1145196552.249254</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0750183583633267</v>
+        <v>0.1088321462986844</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0384981158070277</v>
+        <v>0.02934116578424854</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3464137573.319168</v>
+        <v>4494790531.740424</v>
       </c>
       <c r="F27" t="n">
-        <v>0.108596220708254</v>
+        <v>0.1376375570057465</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01737251201882746</v>
+        <v>0.02383336898731826</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>132</v>
+      </c>
+      <c r="J27" t="n">
+        <v>320</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3114475963.387177</v>
+        <v>3073753445.065356</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09823392518197643</v>
+        <v>0.1452449747091278</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03370291516273558</v>
+        <v>0.03863254868153579</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>69</v>
+      </c>
+      <c r="J28" t="n">
+        <v>319</v>
+      </c>
+      <c r="K28" t="n">
+        <v>61.38027205738939</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4622116548.785336</v>
+        <v>5214637993.138616</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1178991311095589</v>
+        <v>0.1244754260233606</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03125291275742913</v>
+        <v>0.0437496486883745</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>295</v>
+      </c>
+      <c r="J29" t="n">
+        <v>320</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1625376621.422649</v>
+        <v>2150489783.709497</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1345495016907583</v>
+        <v>0.1161841844136739</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03584300265965223</v>
+        <v>0.02617100191292492</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1354704923.656668</v>
+        <v>1296799395.363463</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1119346527671359</v>
+        <v>0.0852956833242421</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04340838688242513</v>
+        <v>0.03408521707126696</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1698063254.777248</v>
+        <v>1379805681.616745</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1093460155602089</v>
+        <v>0.1012815164158438</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03834003885578603</v>
+        <v>0.03199304118208145</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2370466558.227414</v>
+        <v>2952762978.046611</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1657903967036848</v>
+        <v>0.1943572828657623</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05279194833400427</v>
+        <v>0.04393777158876253</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1521069350.64481</v>
+        <v>1328261496.708191</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08327182328366052</v>
+        <v>0.0944044185166458</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02042926017879875</v>
+        <v>0.01737299682679232</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1118682432.286092</v>
+        <v>888283442.1361766</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1182585410611712</v>
+        <v>0.08726544299848031</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0382613266424407</v>
+        <v>0.04439987115531811</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2601395453.28386</v>
+        <v>2298793786.34235</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1793944052843592</v>
+        <v>0.1655008341087731</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02575263727416271</v>
+        <v>0.0209124943824717</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2765860755.569841</v>
+        <v>1967691539.405324</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06941498828148171</v>
+        <v>0.1013542538844337</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02967916380154345</v>
+        <v>0.02961274460517795</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2127979981.145698</v>
+        <v>1697169173.101739</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07901573494633836</v>
+        <v>0.093560846647988</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03595646157777174</v>
+        <v>0.03893187892593603</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2141905274.919227</v>
+        <v>1795213882.120744</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1899522273682838</v>
+        <v>0.1534657438472666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02713161372152891</v>
+        <v>0.0324322390690802</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1166047277.534045</v>
+        <v>1443415471.229739</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1282148916240266</v>
+        <v>0.1094706607089742</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05379022797191288</v>
+        <v>0.05699979214721972</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2770193753.529491</v>
+        <v>2931326213.259698</v>
       </c>
       <c r="F41" t="n">
-        <v>0.147300103639815</v>
+        <v>0.1538809057532648</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03285731578598526</v>
+        <v>0.04052084254005603</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3209355679.343606</v>
+        <v>4071927991.025038</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08216381171550939</v>
+        <v>0.1011751402466412</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03688297920260566</v>
+        <v>0.03942180784695735</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>131</v>
+      </c>
+      <c r="J42" t="n">
+        <v>320</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2383505699.834092</v>
+        <v>2134855309.734212</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1522995634391611</v>
+        <v>0.1471307279102666</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02097900739713199</v>
+        <v>0.02288906424089977</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1791749907.702219</v>
+        <v>1723889982.611156</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1008928819059201</v>
+        <v>0.08550541742464275</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03594079121245695</v>
+        <v>0.02320147373236424</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1572466697.576262</v>
+        <v>2130120118.697111</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1948216794291821</v>
+        <v>0.1556904825536654</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03686239714749094</v>
+        <v>0.0492739812802508</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4949607780.670245</v>
+        <v>3870205482.207058</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1164182847469747</v>
+        <v>0.163598487464795</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05489891086116332</v>
+        <v>0.03964061934809119</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>191</v>
+      </c>
+      <c r="J46" t="n">
+        <v>320</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3829255129.208118</v>
+        <v>4890439911.110165</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1505512627876906</v>
+        <v>0.1767288999601785</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04696739012449935</v>
+        <v>0.04966416807021236</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>142</v>
+      </c>
+      <c r="J47" t="n">
+        <v>320</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2121,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3030679628.554245</v>
+        <v>3373733671.317379</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08661755389623814</v>
+        <v>0.07430390932300665</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03890495732325648</v>
+        <v>0.02704450472369457</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>160</v>
+      </c>
+      <c r="J48" t="n">
+        <v>319</v>
+      </c>
+      <c r="K48" t="n">
+        <v>68.23466184332854</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1279132390.996186</v>
+        <v>1790277153.41461</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1891197565754605</v>
+        <v>0.1220509990736787</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04284328570671572</v>
+        <v>0.0435463765579253</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3059127717.302338</v>
+        <v>3601341731.945678</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1653690512808402</v>
+        <v>0.1732655780184154</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04009392501536305</v>
+        <v>0.03826075015853888</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>104</v>
+      </c>
+      <c r="J50" t="n">
+        <v>320</v>
+      </c>
+      <c r="K50" t="n">
+        <v>78.48798453552533</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1534547849.528669</v>
+        <v>1122750242.746811</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1780427575068468</v>
+        <v>0.1340749819247628</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03989819602860079</v>
+        <v>0.042464043892335</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4119347808.742103</v>
+        <v>3444176663.073029</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1150615260212505</v>
+        <v>0.1362883520426444</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05483893154907682</v>
+        <v>0.05863708037139267</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>194</v>
+      </c>
+      <c r="J52" t="n">
+        <v>318</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2300,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3582499437.306322</v>
+        <v>2560298727.291077</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1654553980127605</v>
+        <v>0.1397909961410775</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02377846325130508</v>
+        <v>0.03013484727679323</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>46</v>
+      </c>
+      <c r="J53" t="n">
+        <v>319</v>
+      </c>
+      <c r="K53" t="n">
+        <v>40.31361322212636</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3973466771.078362</v>
+        <v>3627331392.735877</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1266534062223265</v>
+        <v>0.1599586478143244</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0524008634292883</v>
+        <v>0.04719046998655996</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>168</v>
+      </c>
+      <c r="J54" t="n">
+        <v>320</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3033525985.962731</v>
+        <v>3435252261.434397</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1564107798916168</v>
+        <v>0.136554731373674</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0200509096781666</v>
+        <v>0.02150086096760742</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>149</v>
+      </c>
+      <c r="J55" t="n">
+        <v>319</v>
+      </c>
+      <c r="K55" t="n">
+        <v>67.53343134443078</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1849677057.985297</v>
+        <v>1159765805.262912</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1015860172185875</v>
+        <v>0.1270185073143651</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05373372268786126</v>
+        <v>0.04767224363852658</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4586550506.788261</v>
+        <v>3018643831.019969</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1228217277308316</v>
+        <v>0.1684068504740085</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02760127983022931</v>
+        <v>0.02153442345402746</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>132</v>
+      </c>
+      <c r="J57" t="n">
+        <v>319</v>
+      </c>
+      <c r="K57" t="n">
+        <v>52.7857208166014</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1225051531.39481</v>
+        <v>1841846753.675409</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1885613871666266</v>
+        <v>0.1978036031967668</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02697248703845084</v>
+        <v>0.03735390609244301</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5355206747.674522</v>
+        <v>4866941973.818169</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0918365375071819</v>
+        <v>0.0951864287511512</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03426058094053933</v>
+        <v>0.03812357695007788</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>154</v>
+      </c>
+      <c r="J59" t="n">
+        <v>320</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3567133652.665374</v>
+        <v>3529165435.012282</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1702598485521617</v>
+        <v>0.1636527051707615</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02546711290210234</v>
+        <v>0.02535778612065225</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>316</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3130206001.994328</v>
+        <v>2377572965.861174</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1442543307941545</v>
+        <v>0.1107345303229228</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02415365021019057</v>
+        <v>0.02048737965952556</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2096977446.05655</v>
+        <v>1508940608.520697</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1243643619050887</v>
+        <v>0.1458719100919251</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04915150172076512</v>
+        <v>0.04471194965067127</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3791104842.102123</v>
+        <v>3696547306.268533</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06486624440014477</v>
+        <v>0.1072352499329091</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04681632478552677</v>
+        <v>0.03190049499106126</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>155</v>
+      </c>
+      <c r="J63" t="n">
+        <v>320</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4127854165.578935</v>
+        <v>4346140893.858841</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1442041977074075</v>
+        <v>0.1676799256883259</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02895498306627405</v>
+        <v>0.03094930110076952</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>158</v>
+      </c>
+      <c r="J64" t="n">
+        <v>320</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5824223812.562487</v>
+        <v>4419416148.1166</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1127424914268435</v>
+        <v>0.1631676815807137</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02014592263903669</v>
+        <v>0.02389328594532135</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>252</v>
+      </c>
+      <c r="J65" t="n">
+        <v>319</v>
+      </c>
+      <c r="K65" t="n">
+        <v>75.27956515763822</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2763,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4441046538.643652</v>
+        <v>3694126698.907549</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1133568623129055</v>
+        <v>0.132089211711805</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0456272764855772</v>
+        <v>0.04199228379296739</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>158</v>
+      </c>
+      <c r="J66" t="n">
+        <v>319</v>
+      </c>
+      <c r="K66" t="n">
+        <v>69.33229092068591</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2276840715.590819</v>
+        <v>3056970301.272985</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0658204756109791</v>
+        <v>0.1018443417695682</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04812825325076912</v>
+        <v>0.05122768098419091</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4262952452.692172</v>
+        <v>4183384272.896309</v>
       </c>
       <c r="F68" t="n">
-        <v>0.110181222848149</v>
+        <v>0.1278892803211913</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04146028476008747</v>
+        <v>0.04911221556253633</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>172</v>
+      </c>
+      <c r="J68" t="n">
+        <v>320</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2356177360.764078</v>
+        <v>1896545254.945886</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1479804411068151</v>
+        <v>0.1399945687395887</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03696636068862096</v>
+        <v>0.05647642967113826</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2770900262.981114</v>
+        <v>2810375459.964293</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0993114699124983</v>
+        <v>0.1013424018228765</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03980861414431626</v>
+        <v>0.04326844557281701</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>47</v>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3612441214.019329</v>
+        <v>4687830207.297079</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1179320575423971</v>
+        <v>0.1348920124621797</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02134247698276564</v>
+        <v>0.02220062153141671</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>236</v>
+      </c>
+      <c r="J71" t="n">
+        <v>320</v>
+      </c>
+      <c r="K71" t="n">
+        <v>76.6327516173052</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2046456246.573285</v>
+        <v>1603462076.467736</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09549909408091768</v>
+        <v>0.07025194295048098</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05105553904733748</v>
+        <v>0.05311374443973017</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3140778935.997509</v>
+        <v>2485582294.390894</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1095310445023428</v>
+        <v>0.09110469538756479</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04179137476796863</v>
+        <v>0.04596049003810226</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3995317351.311858</v>
+        <v>2569430661.15417</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1128497435999576</v>
+        <v>0.1741097470030295</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0238986265574032</v>
+        <v>0.02624439335413056</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1907560719.318964</v>
+        <v>1531325247.976761</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1367858938695307</v>
+        <v>0.1427972439376389</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03349390451610004</v>
+        <v>0.02344162844236693</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3308780882.15778</v>
+        <v>4057302229.751884</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1114054976022794</v>
+        <v>0.1193582816365039</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02123770715476611</v>
+        <v>0.0210757487963052</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>151</v>
+      </c>
+      <c r="J76" t="n">
+        <v>319</v>
+      </c>
+      <c r="K76" t="n">
+        <v>71.43838591052689</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2154681922.497138</v>
+        <v>2068518538.552823</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1733083660451703</v>
+        <v>0.177620641323585</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02614644571173244</v>
+        <v>0.02802332474909323</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3189,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4593114008.391032</v>
+        <v>3289589573.638677</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1259578528846378</v>
+        <v>0.09123454553438255</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04278014585221023</v>
+        <v>0.05718872132651248</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>158</v>
+      </c>
+      <c r="J78" t="n">
+        <v>317</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1779640715.604532</v>
+        <v>1927806288.210783</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1553406022993323</v>
+        <v>0.168768902737185</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0279987333435346</v>
+        <v>0.02807049258698266</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3253,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5324349047.54516</v>
+        <v>4764289229.844347</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1056008099338729</v>
+        <v>0.106101409421451</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02703720647013139</v>
+        <v>0.02384252983137779</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>156</v>
+      </c>
+      <c r="J80" t="n">
+        <v>320</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4245287690.331595</v>
+        <v>4598204993.876939</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09830342238411072</v>
+        <v>0.09585157148214839</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03089437979206106</v>
+        <v>0.02445364673579015</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>148</v>
+      </c>
+      <c r="J81" t="n">
+        <v>319</v>
+      </c>
+      <c r="K81" t="n">
+        <v>67.95066651224948</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4893747268.096408</v>
+        <v>3682294572.891778</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1894614779053564</v>
+        <v>0.2003483366676917</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02675097810741536</v>
+        <v>0.01995421307388189</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>231</v>
+      </c>
+      <c r="J82" t="n">
+        <v>319</v>
+      </c>
+      <c r="K82" t="n">
+        <v>73.71830578241054</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2190387056.835814</v>
+        <v>2226893769.858399</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1409284871433265</v>
+        <v>0.1578863460542966</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04353469578272578</v>
+        <v>0.04264113716193831</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2382543779.236513</v>
+        <v>1589557831.493842</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09877238347520062</v>
+        <v>0.09756346021508704</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03394717320327718</v>
+        <v>0.04107432631167425</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3420027313.596662</v>
+        <v>2728183726.143824</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1253463219857608</v>
+        <v>0.1394764551335136</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04569256158517208</v>
+        <v>0.04049878971991237</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>42</v>
+      </c>
+      <c r="J85" t="n">
+        <v>315</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2322572305.002599</v>
+        <v>2224515495.892211</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1218030815850299</v>
+        <v>0.1520980587781392</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02706504043110576</v>
+        <v>0.02630544388696971</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1454239019.523429</v>
+        <v>1444386977.95312</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1187580437130825</v>
+        <v>0.1659890643586772</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03602719885278884</v>
+        <v>0.03883916226689055</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3000409020.462208</v>
+        <v>2269592950.389745</v>
       </c>
       <c r="F88" t="n">
-        <v>0.143173375732561</v>
+        <v>0.130858874702426</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03137496765587203</v>
+        <v>0.03159522809908946</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>44</v>
+      </c>
+      <c r="J88" t="n">
+        <v>319</v>
+      </c>
+      <c r="K88" t="n">
+        <v>34.47305596915463</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3205691815.564814</v>
+        <v>2375538871.972621</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125024582174259</v>
+        <v>0.1602251196794468</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0382630309981472</v>
+        <v>0.02780739075981614</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1477572529.196572</v>
+        <v>1703693464.437806</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1123717132971325</v>
+        <v>0.1215466204937797</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05391627589088945</v>
+        <v>0.05274093318936754</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1706059432.648845</v>
+        <v>2042322640.682047</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1528903134585077</v>
+        <v>0.1500503492170694</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04313419395592066</v>
+        <v>0.05499747154004105</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2359023266.122929</v>
+        <v>2316989435.068283</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1058267080272426</v>
+        <v>0.1016797174203051</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04634316875244707</v>
+        <v>0.03530211207500793</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4579265447.210552</v>
+        <v>4186560517.363451</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1333043933242795</v>
+        <v>0.09724318480018949</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03767989822478957</v>
+        <v>0.05264532616773682</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>144</v>
+      </c>
+      <c r="J93" t="n">
+        <v>320</v>
+      </c>
+      <c r="K93" t="n">
+        <v>76.28652648388216</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2388622233.45681</v>
+        <v>1824339295.980559</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1474396062384618</v>
+        <v>0.1582793582906279</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03758731592111177</v>
+        <v>0.0419077557815074</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2707908027.763461</v>
+        <v>2090808833.252527</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09295425400523261</v>
+        <v>0.09703858059340241</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04775850643988933</v>
+        <v>0.04973134741019949</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1618206449.469618</v>
+        <v>2122505750.373424</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0960216568331996</v>
+        <v>0.1393562320158059</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03930098806445773</v>
+        <v>0.02998450437135639</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4947357753.300938</v>
+        <v>5263990900.595893</v>
       </c>
       <c r="F97" t="n">
-        <v>0.140989266666091</v>
+        <v>0.1613855831627214</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02203187612857759</v>
+        <v>0.02467501760675083</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>163</v>
+      </c>
+      <c r="J97" t="n">
+        <v>320</v>
+      </c>
+      <c r="K97" t="n">
+        <v>77.92389040057591</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3193615197.02071</v>
+        <v>3326912668.075543</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1060664556513511</v>
+        <v>0.1056574949078678</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02174189841424385</v>
+        <v>0.02483197868560607</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>79</v>
+      </c>
+      <c r="J98" t="n">
+        <v>317</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2601937213.667881</v>
+        <v>2727655812.317464</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1174586967518287</v>
+        <v>0.1181880089780116</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02926239790191372</v>
+        <v>0.03124399743713467</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3665642449.797868</v>
+        <v>4527653925.192307</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1135633118884026</v>
+        <v>0.1280053545611447</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02009893756234171</v>
+        <v>0.01750476560056506</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>141</v>
+      </c>
+      <c r="J100" t="n">
+        <v>319</v>
+      </c>
+      <c r="K100" t="n">
+        <v>76.18411680920374</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2501344083.488889</v>
+        <v>2256018845.615829</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1762474125992552</v>
+        <v>0.1746741377718013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04530789139948818</v>
+        <v>0.04475920318081061</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
